--- a/Administrativas/Directorio_SOAPI_2019 ACTUALIZADO.xlsx
+++ b/Administrativas/Directorio_SOAPI_2019 ACTUALIZADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\Administrativas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{887C1FD1-FF41-438A-A1AB-88D244E71BEF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1F4A43-082B-4FC0-B817-F85223348540}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5097,10 +5097,10 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -7797,13 +7797,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBD6438-43C1-434E-89CF-42B0C2AA1BF7}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7890,7 +7890,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="157" t="s">
         <v>854</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="157"/>
       <c r="B5" s="113" t="s">
         <v>96</v>
@@ -7958,7 +7958,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="157"/>
       <c r="B6" s="113" t="s">
         <v>192</v>
@@ -7991,7 +7991,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="157"/>
       <c r="B7" s="113" t="s">
         <v>831</v>
@@ -8024,7 +8024,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="157"/>
       <c r="B8" s="113" t="s">
         <v>66</v>
@@ -8057,7 +8057,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="157"/>
       <c r="B9" s="113" t="s">
         <v>21</v>
@@ -8090,7 +8090,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="157"/>
       <c r="B10" s="113" t="s">
         <v>232</v>
@@ -8123,7 +8123,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="157"/>
       <c r="B11" s="113" t="s">
         <v>687</v>
@@ -8156,7 +8156,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="151" t="s">
         <v>879</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1">
+    <row r="14" spans="1:11">
       <c r="A14" s="152"/>
       <c r="B14" s="113" t="s">
         <v>834</v>
@@ -8257,7 +8257,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1">
+    <row r="15" spans="1:11">
       <c r="A15" s="152"/>
       <c r="B15" s="113" t="s">
         <v>86</v>
@@ -8290,7 +8290,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1">
+    <row r="16" spans="1:11">
       <c r="A16" s="152"/>
       <c r="B16" s="113" t="s">
         <v>225</v>
@@ -8323,7 +8323,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1">
+    <row r="17" spans="1:11">
       <c r="A17" s="152"/>
       <c r="B17" s="113" t="s">
         <v>829</v>
@@ -8356,7 +8356,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" spans="1:11">
       <c r="A18" s="152"/>
       <c r="B18" s="113" t="s">
         <v>13</v>
@@ -8389,7 +8389,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1">
+    <row r="19" spans="1:11">
       <c r="A19" s="152"/>
       <c r="B19" s="113" t="s">
         <v>237</v>
@@ -8422,7 +8422,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1">
+    <row r="20" spans="1:11">
       <c r="A20" s="153"/>
       <c r="B20" s="113" t="s">
         <v>119</v>
@@ -8455,7 +8455,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1">
+    <row r="21" spans="1:11">
       <c r="A21" s="151" t="s">
         <v>902</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1">
+    <row r="22" spans="1:11">
       <c r="A22" s="152"/>
       <c r="B22" s="113" t="s">
         <v>40</v>
@@ -8523,7 +8523,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1">
+    <row r="23" spans="1:11">
       <c r="A23" s="152"/>
       <c r="B23" s="113" t="s">
         <v>826</v>
@@ -8556,7 +8556,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1">
+    <row r="24" spans="1:11">
       <c r="A24" s="152"/>
       <c r="B24" s="113" t="s">
         <v>58</v>
@@ -8589,7 +8589,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1">
+    <row r="25" spans="1:11">
       <c r="A25" s="152"/>
       <c r="B25" s="113" t="s">
         <v>224</v>
@@ -8622,7 +8622,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1">
+    <row r="26" spans="1:11">
       <c r="A26" s="152"/>
       <c r="B26" s="113" t="s">
         <v>917</v>
@@ -8655,7 +8655,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1">
+    <row r="27" spans="1:11">
       <c r="A27" s="152"/>
       <c r="B27" s="113" t="s">
         <v>158</v>
@@ -8688,7 +8688,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1">
+    <row r="28" spans="1:11">
       <c r="A28" s="153"/>
       <c r="B28" s="113" t="s">
         <v>110</v>
@@ -8721,7 +8721,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1">
+    <row r="29" spans="1:11">
       <c r="A29" s="151" t="s">
         <v>925</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" spans="1:11">
       <c r="A30" s="152"/>
       <c r="B30" s="113" t="s">
         <v>33</v>
@@ -8789,7 +8789,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1">
+    <row r="31" spans="1:11">
       <c r="A31" s="152"/>
       <c r="B31" s="113" t="s">
         <v>828</v>
@@ -8822,7 +8822,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1">
+    <row r="32" spans="1:11">
       <c r="A32" s="152"/>
       <c r="B32" s="113" t="s">
         <v>668</v>
@@ -8855,7 +8855,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1">
+    <row r="33" spans="1:11">
       <c r="A33" s="152"/>
       <c r="B33" s="113" t="s">
         <v>118</v>
@@ -8888,7 +8888,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1">
+    <row r="34" spans="1:11">
       <c r="A34" s="152"/>
       <c r="B34" s="113" t="s">
         <v>103</v>
@@ -8921,7 +8921,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1">
+    <row r="35" spans="1:11">
       <c r="A35" s="152"/>
       <c r="B35" s="113" t="s">
         <v>941</v>
@@ -8954,7 +8954,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1">
+    <row r="36" spans="1:11">
       <c r="A36" s="153"/>
       <c r="B36" s="113" t="s">
         <v>131</v>
@@ -8988,13 +8988,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:K36" xr:uid="{76F59D74-576A-41D1-ACBD-F21247A5CC62}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="VICHADA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:K36" xr:uid="{76F59D74-576A-41D1-ACBD-F21247A5CC62}"/>
   <mergeCells count="8">
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="A29:A36"/>
